--- a/DEV/org.openl.rules/test/rules/dispatching/EPBDS-10367_dates_Dispatching.xlsx
+++ b/DEV/org.openl.rules/test/rules/dispatching/EPBDS-10367_dates_Dispatching.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EIS_Sources\OpenL\openl-pub\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenL\DEV\org.openl.rules\test\rules\dispatching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AEF82A-5572-4581-8BEE-C9F05DF84F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665C4523-08A1-476B-9A43-D5642BFC3037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54A9A806-2E50-465D-8D18-DD7013B9A789}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{54A9A806-2E50-465D-8D18-DD7013B9A789}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
   <si>
     <t>SmartRules Double myRule(Integer a)</t>
   </si>
@@ -53,13 +53,10 @@
     <t>effectiveDate</t>
   </si>
   <si>
-    <t>//SmartRules Double myRule(Integer a)</t>
-  </si>
-  <si>
     <t>_error_</t>
   </si>
   <si>
-    <t xml:space="preserve">100
+    <t xml:space="preserve">7
 </t>
   </si>
 </sst>
@@ -118,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -134,9 +131,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -174,7 +171,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -280,7 +277,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,15 +427,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C321950D-5508-4DE5-B6CC-76570E273F04}">
-  <dimension ref="B6:D56"/>
+  <dimension ref="B6:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -514,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -525,7 +523,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -536,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -547,7 +545,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -584,7 +582,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D28" s="15">
         <v>100</v>
@@ -595,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="14">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="D29" s="15">
         <v>200</v>
@@ -606,7 +604,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="14">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="D30" s="15">
         <v>300</v>
@@ -646,7 +644,7 @@
         <v>13</v>
       </c>
       <c r="C35" s="14">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D35" s="15">
         <v>100</v>
@@ -657,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="14">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="D36" s="15">
         <v>200</v>
@@ -668,7 +666,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="14">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="D37" s="15">
         <v>300</v>
@@ -708,7 +706,7 @@
         <v>13</v>
       </c>
       <c r="C45" s="14">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D45" s="15">
         <v>100</v>
@@ -719,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="14">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="D46" s="15">
         <v>200</v>
@@ -730,101 +728,34 @@
         <v>3</v>
       </c>
       <c r="C47" s="14">
-        <v>300</v>
+        <v>9</v>
       </c>
       <c r="D47" s="15">
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="10">
-        <v>44086</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="11">
-        <v>13</v>
-      </c>
-      <c r="C54" s="14">
-        <v>100</v>
-      </c>
-      <c r="D54" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="11">
-        <v>2</v>
-      </c>
-      <c r="C55" s="14">
-        <v>200</v>
-      </c>
-      <c r="D55" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="11">
-        <v>3</v>
-      </c>
-      <c r="C56" s="14">
-        <v>300</v>
-      </c>
-      <c r="D56" s="15">
-        <v>300</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="20">
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
